--- a/Gerbers/IonTrapPowerDistroBOM-1-25-2018.xlsx
+++ b/Gerbers/IonTrapPowerDistroBOM-1-25-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10380"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -334,17 +340,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,14 +677,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -686,185 +700,185 @@
     <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>1.5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>1.5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>1.44</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -872,7 +886,7 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
@@ -900,315 +914,315 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>0.88</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0.88</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0.88</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>0.88</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>0.92</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>805</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>805</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>6.25</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1216,7 +1230,7 @@
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C20" t="s">
